--- a/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="o554F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="o554F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9950240908230863</v>
       </c>
       <c r="D13">
-        <v>0.9945358124397073</v>
+        <v>0.9945358124397078</v>
       </c>
       <c r="E13">
         <v>0.9939644677708043</v>
@@ -970,13 +970,13 @@
         <v>0.9944208768167794</v>
       </c>
       <c r="J13">
-        <v>0.9945358124397073</v>
+        <v>0.9945358124397078</v>
       </c>
       <c r="K13">
-        <v>0.9942501401052558</v>
+        <v>0.994250140105256</v>
       </c>
       <c r="L13">
-        <v>0.9946371154641711</v>
+        <v>0.9946371154641712</v>
       </c>
       <c r="M13">
         <v>0.9938803270411971</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.998219026416319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.166259248206962</v>
+      </c>
+      <c r="D16">
+        <v>0.6150372372946338</v>
+      </c>
+      <c r="E16">
+        <v>1.04570840306212</v>
+      </c>
+      <c r="F16">
+        <v>1.166259248206962</v>
+      </c>
+      <c r="G16">
+        <v>0.7983980656971881</v>
+      </c>
+      <c r="H16">
+        <v>1.126180299928017</v>
+      </c>
+      <c r="I16">
+        <v>1.086610671014488</v>
+      </c>
+      <c r="J16">
+        <v>0.6150372372946338</v>
+      </c>
+      <c r="K16">
+        <v>0.8303728201783769</v>
+      </c>
+      <c r="L16">
+        <v>0.9983160341926693</v>
+      </c>
+      <c r="M16">
+        <v>0.9730323208672349</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.166259248206962</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
@@ -955,7 +955,7 @@
         <v>0.9950240908230863</v>
       </c>
       <c r="D13">
-        <v>0.9945358124397078</v>
+        <v>0.9945358124397073</v>
       </c>
       <c r="E13">
         <v>0.9939644677708043</v>
@@ -973,13 +973,13 @@
         <v>0.9944208768167794</v>
       </c>
       <c r="J13">
-        <v>0.9945358124397078</v>
+        <v>0.9945358124397073</v>
       </c>
       <c r="K13">
-        <v>0.994250140105256</v>
+        <v>0.9942501401052558</v>
       </c>
       <c r="L13">
-        <v>0.9946371154641712</v>
+        <v>0.9946371154641711</v>
       </c>
       <c r="M13">
         <v>0.9938803270411971</v>

--- a/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/o554F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7665679999999983</v>
+        <v>1.166259248206962</v>
       </c>
       <c r="D10">
-        <v>0.540900000000001</v>
+        <v>0.6150372372946338</v>
       </c>
       <c r="E10">
-        <v>1.259892</v>
+        <v>1.04570840306212</v>
       </c>
       <c r="F10">
-        <v>0.7665679999999983</v>
+        <v>1.166259248206962</v>
       </c>
       <c r="G10">
-        <v>0.6358840000000004</v>
+        <v>0.7983980656971881</v>
       </c>
       <c r="H10">
-        <v>1.933344000000001</v>
+        <v>1.126180299928017</v>
       </c>
       <c r="I10">
-        <v>1.162999999999998</v>
+        <v>1.086610671014488</v>
       </c>
       <c r="J10">
-        <v>0.540900000000001</v>
+        <v>0.6150372372946338</v>
       </c>
       <c r="K10">
-        <v>0.9003960000000003</v>
+        <v>0.8303728201783769</v>
       </c>
       <c r="L10">
-        <v>0.8334819999999993</v>
+        <v>0.9983160341926693</v>
       </c>
       <c r="M10">
-        <v>1.049931333333333</v>
+        <v>0.9730323208672349</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.72</v>
+        <v>0.9995207151137521</v>
       </c>
       <c r="D11">
-        <v>0.07000000000000001</v>
+        <v>0.9637772103659213</v>
       </c>
       <c r="E11">
-        <v>1.461237500000003</v>
+        <v>0.9822669232148015</v>
       </c>
       <c r="F11">
-        <v>0.72</v>
+        <v>0.9995207151137521</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>1.034150425731354</v>
       </c>
       <c r="H11">
-        <v>2.768750000000002</v>
+        <v>0.8694875128817304</v>
       </c>
       <c r="I11">
-        <v>1.34</v>
+        <v>0.9857289973144043</v>
       </c>
       <c r="J11">
-        <v>0.07000000000000001</v>
+        <v>0.9637772103659213</v>
       </c>
       <c r="K11">
-        <v>0.7656187500000017</v>
+        <v>0.9730220667903614</v>
       </c>
       <c r="L11">
-        <v>0.7428093750000009</v>
+        <v>0.9862713909520567</v>
       </c>
       <c r="M11">
-        <v>1.101664583333334</v>
+        <v>0.9724886307703273</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8437880829951994</v>
+        <v>0.9972166131034629</v>
       </c>
       <c r="D12">
-        <v>0.4525840355328005</v>
+        <v>0.9654221358289631</v>
       </c>
       <c r="E12">
-        <v>1.266845427199999</v>
+        <v>0.9827416855265932</v>
       </c>
       <c r="F12">
-        <v>0.8437880829951994</v>
+        <v>0.9972166131034629</v>
       </c>
       <c r="G12">
-        <v>0.5616876208128014</v>
+        <v>1.035113803753338</v>
       </c>
       <c r="H12">
-        <v>2.008984824831995</v>
+        <v>0.8697235836166758</v>
       </c>
       <c r="I12">
-        <v>1.191338608435194</v>
+        <v>0.9852586586559313</v>
       </c>
       <c r="J12">
-        <v>0.4525840355328005</v>
+        <v>0.9654221358289631</v>
       </c>
       <c r="K12">
-        <v>0.8597147313664</v>
+        <v>0.9740819106777782</v>
       </c>
       <c r="L12">
-        <v>0.8517514071807997</v>
+        <v>0.9856492618906205</v>
       </c>
       <c r="M12">
-        <v>1.054204766634665</v>
+        <v>0.9725794134141608</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9950240908230863</v>
+        <v>0.9993258281154973</v>
       </c>
       <c r="D13">
-        <v>0.9945358124397073</v>
+        <v>0.9637924972707507</v>
       </c>
       <c r="E13">
-        <v>0.9939644677708043</v>
+        <v>0.9824539607080326</v>
       </c>
       <c r="F13">
-        <v>0.9950240908230863</v>
+        <v>0.9993258281154973</v>
       </c>
       <c r="G13">
-        <v>0.990812887787386</v>
+        <v>1.034244667105257</v>
       </c>
       <c r="H13">
-        <v>0.9945238266094194</v>
+        <v>0.8692819243625699</v>
       </c>
       <c r="I13">
-        <v>0.9944208768167794</v>
+        <v>0.985569647148516</v>
       </c>
       <c r="J13">
-        <v>0.9945358124397073</v>
+        <v>0.9637924972707507</v>
       </c>
       <c r="K13">
-        <v>0.9942501401052558</v>
+        <v>0.9731232289893916</v>
       </c>
       <c r="L13">
-        <v>0.9946371154641711</v>
+        <v>0.9862245285524445</v>
       </c>
       <c r="M13">
-        <v>0.9938803270411971</v>
+        <v>0.9724447541184372</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9219342028667733</v>
+        <v>0.7665679999999983</v>
       </c>
       <c r="D14">
-        <v>1.055510848183846</v>
+        <v>0.540900000000001</v>
       </c>
       <c r="E14">
-        <v>1.005691515749741</v>
+        <v>1.259892</v>
       </c>
       <c r="F14">
-        <v>0.9219342028667733</v>
+        <v>0.7665679999999983</v>
       </c>
       <c r="G14">
-        <v>1.019793203122227</v>
+        <v>0.6358840000000004</v>
       </c>
       <c r="H14">
-        <v>1.015292691945201</v>
+        <v>1.933344000000001</v>
       </c>
       <c r="I14">
-        <v>0.9830502005883052</v>
+        <v>1.162999999999998</v>
       </c>
       <c r="J14">
-        <v>1.055510848183846</v>
+        <v>0.540900000000001</v>
       </c>
       <c r="K14">
-        <v>1.030601181966794</v>
+        <v>0.9003960000000003</v>
       </c>
       <c r="L14">
-        <v>0.9762676924167835</v>
+        <v>0.8334819999999993</v>
       </c>
       <c r="M14">
-        <v>1.000212110409349</v>
+        <v>1.049931333333333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9721686643051966</v>
+        <v>0.72</v>
       </c>
       <c r="D15">
-        <v>1.155034933462931</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E15">
-        <v>0.952136798475879</v>
+        <v>1.461237500000003</v>
       </c>
       <c r="F15">
-        <v>0.9721686643051966</v>
+        <v>0.72</v>
       </c>
       <c r="G15">
-        <v>1.080038061395584</v>
+        <v>0.25</v>
       </c>
       <c r="H15">
-        <v>0.8775173774800933</v>
+        <v>2.768750000000002</v>
       </c>
       <c r="I15">
-        <v>0.9524183233782294</v>
+        <v>1.34</v>
       </c>
       <c r="J15">
-        <v>1.155034933462931</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K15">
-        <v>1.053585865969405</v>
+        <v>0.7656187500000017</v>
       </c>
       <c r="L15">
-        <v>1.012877265137301</v>
+        <v>0.7428093750000009</v>
       </c>
       <c r="M15">
-        <v>0.998219026416319</v>
+        <v>1.101664583333334</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.166259248206962</v>
+        <v>0.8437880829951994</v>
       </c>
       <c r="D16">
-        <v>0.6150372372946338</v>
+        <v>0.4525840355328005</v>
       </c>
       <c r="E16">
-        <v>1.04570840306212</v>
+        <v>1.266845427199999</v>
       </c>
       <c r="F16">
-        <v>1.166259248206962</v>
+        <v>0.8437880829951994</v>
       </c>
       <c r="G16">
-        <v>0.7983980656971881</v>
+        <v>0.5616876208128014</v>
       </c>
       <c r="H16">
-        <v>1.126180299928017</v>
+        <v>2.008984824831995</v>
       </c>
       <c r="I16">
-        <v>1.086610671014488</v>
+        <v>1.191338608435194</v>
       </c>
       <c r="J16">
-        <v>0.6150372372946338</v>
+        <v>0.4525840355328005</v>
       </c>
       <c r="K16">
-        <v>0.8303728201783769</v>
+        <v>0.8597147313664</v>
       </c>
       <c r="L16">
-        <v>0.9983160341926693</v>
+        <v>0.8517514071807997</v>
       </c>
       <c r="M16">
-        <v>0.9730323208672349</v>
+        <v>1.054204766634665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9950240908230863</v>
+      </c>
+      <c r="D17">
+        <v>0.9945358124397078</v>
+      </c>
+      <c r="E17">
+        <v>0.9939644677708043</v>
+      </c>
+      <c r="F17">
+        <v>0.9950240908230863</v>
+      </c>
+      <c r="G17">
+        <v>0.990812887787386</v>
+      </c>
+      <c r="H17">
+        <v>0.9945238266094194</v>
+      </c>
+      <c r="I17">
+        <v>0.9944208768167794</v>
+      </c>
+      <c r="J17">
+        <v>0.9945358124397078</v>
+      </c>
+      <c r="K17">
+        <v>0.994250140105256</v>
+      </c>
+      <c r="L17">
+        <v>0.9946371154641712</v>
+      </c>
+      <c r="M17">
+        <v>0.9938803270411971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9219342028667733</v>
+      </c>
+      <c r="D18">
+        <v>1.055510848183846</v>
+      </c>
+      <c r="E18">
+        <v>1.005691515749741</v>
+      </c>
+      <c r="F18">
+        <v>0.9219342028667733</v>
+      </c>
+      <c r="G18">
+        <v>1.019793203122227</v>
+      </c>
+      <c r="H18">
+        <v>1.015292691945201</v>
+      </c>
+      <c r="I18">
+        <v>0.9830502005883052</v>
+      </c>
+      <c r="J18">
+        <v>1.055510848183846</v>
+      </c>
+      <c r="K18">
+        <v>1.030601181966794</v>
+      </c>
+      <c r="L18">
+        <v>0.9762676924167835</v>
+      </c>
+      <c r="M18">
+        <v>1.000212110409349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9721686643051966</v>
+      </c>
+      <c r="D19">
+        <v>1.155034933462931</v>
+      </c>
+      <c r="E19">
+        <v>0.952136798475879</v>
+      </c>
+      <c r="F19">
+        <v>0.9721686643051966</v>
+      </c>
+      <c r="G19">
+        <v>1.080038061395584</v>
+      </c>
+      <c r="H19">
+        <v>0.8775173774800933</v>
+      </c>
+      <c r="I19">
+        <v>0.9524183233782294</v>
+      </c>
+      <c r="J19">
+        <v>1.155034933462931</v>
+      </c>
+      <c r="K19">
+        <v>1.053585865969405</v>
+      </c>
+      <c r="L19">
+        <v>1.012877265137301</v>
+      </c>
+      <c r="M19">
+        <v>0.998219026416319</v>
       </c>
     </row>
   </sheetData>
